--- a/Documentation/Tests/Plan de test.xlsx
+++ b/Documentation/Tests/Plan de test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olaberge\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippegosselin-bouchard/Documents/Ecole/Universite_de_Sherbrooke/S5/Projet/Repo/Documentation/Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCD3C07-3891-2048-9040-6BCB4BD7E923}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8290" windowHeight="4080" activeTab="1" xr2:uid="{73256A17-FE39-444F-BF69-663F23F71EB5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="23540" activeTab="1" xr2:uid="{73256A17-FE39-444F-BF69-663F23F71EB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Gabarit" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
   <si>
     <t>Personne responsable:</t>
   </si>
@@ -66,48 +67,44 @@
     <t>Comparer le résultat de la corrélation codé MATLAB versus xcorr avec les entrées suivantes:</t>
   </si>
   <si>
-    <t>Onde sinusoïdale de 1kHz</t>
-  </si>
-  <si>
-    <t>Onde carré de 1kHz</t>
-  </si>
-  <si>
-    <t>Onde triangulaire de 1kHz</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t>1 - Effectuer les tests décrits plus haut</t>
   </si>
   <si>
-    <t>LA.wav de l'app 4</t>
-  </si>
-  <si>
-    <t>Toiken.wav de l'app 4</t>
-  </si>
-  <si>
-    <t>Basson.wav de l'app4</t>
-  </si>
-  <si>
     <t xml:space="preserve">2- Si certains tests n'ont pas passé, refaire ceux-ci et entrer les résultats dans un nouvel onglet lorsque le problème sera corrigé </t>
   </si>
   <si>
     <t>Comparer le résultat de la corrélation codé MATLAB versus codé en C avec les entrées suivantes:</t>
   </si>
   <si>
-    <t>Comparer le résultat de la corrélation codé MATLAB versus codé en ASM avec les entrées suivantes:</t>
+    <t>Pistes de déboggage:</t>
+  </si>
+  <si>
+    <t>Le résultat de corrélation codé MATLAB est égal aux résultats codé en C</t>
   </si>
   <si>
     <t>Avoir une valeur de corrélation
- fortement similaire (+- 1%)</t>
-  </si>
-  <si>
-    <t>Pistes de déboggage:</t>
-  </si>
-  <si>
-    <t>Avoir une valeur de corrélation
- fortement similaire (+- 0.5%)</t>
+ fortement similaire (+- 0,1%)</t>
+  </si>
+  <si>
+    <t>Le résultat de corrélation codé en C est égal aux résultats codé en ASM</t>
+  </si>
+  <si>
+    <t>Comparer le résultat de la corrélation codé en C versus codé en ASM avec les entrées suivantes:</t>
+  </si>
+  <si>
+    <t>Vecteur avec des nombres positifs de valeur basse (0 à 9 répété 3 fois)</t>
+  </si>
+  <si>
+    <t>Vecteur avec des nombres négatifs de valeur basse (0 à -9 répété 3 fois)</t>
+  </si>
+  <si>
+    <t>Vecteur de zéros d'une longueur de 30</t>
+  </si>
+  <si>
+    <t>Vecteur test de cas extrême</t>
   </si>
 </sst>
 </file>
@@ -123,12 +120,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -670,46 +673,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -718,87 +738,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -810,25 +840,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,274 +1168,298 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="11.7265625" customWidth="1"/>
-    <col min="12" max="12" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.6328125" customWidth="1"/>
-    <col min="15" max="15" width="29.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.6640625" customWidth="1"/>
+    <col min="15" max="15" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="F2" s="15" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="F2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="27"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="41" t="s">
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="14" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="5" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="26" t="s">
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="34">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="O6" s="44"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="30">
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="O6" s="17"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="O7" s="43"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="30">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="O8" s="43"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="30">
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <v>4</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="O9" s="43"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="30">
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>5</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="O10" s="43"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="30">
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>6</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="O11" s="43"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="30">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="O11" s="18"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="O12" s="43"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="30">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>8</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="O13" s="43"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="30">
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>9</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="O14" s="43"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="31">
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="O14" s="18"/>
+    </row>
+    <row r="15" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>10</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="O15" s="45"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="35"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="O15" s="19"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="O6:O15"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -1434,30 +1476,6 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1466,543 +1484,513 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F02105B-CCE5-4202-B0DC-2622B0791FD2}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:G7"/>
+      <selection activeCell="H7" sqref="H7:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="12" max="12" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="F2" s="15" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="F2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="27"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="59" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="18"/>
+    </row>
+    <row r="7" spans="1:15" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="44"/>
-    </row>
-    <row r="7" spans="1:15" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B7" s="50" t="s">
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="O7" s="43"/>
-    </row>
-    <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="O8" s="43"/>
-    </row>
-    <row r="9" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="O9" s="43"/>
-    </row>
-    <row r="10" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="43"/>
-    </row>
-    <row r="11" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="18"/>
+    </row>
+    <row r="12" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>2.1</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B12" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="O11" s="43"/>
-    </row>
-    <row r="12" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="38"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="O12" s="43"/>
-    </row>
-    <row r="13" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="O13" s="43"/>
-    </row>
-    <row r="14" spans="1:15" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="1:15" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="O14" s="18"/>
+    </row>
+    <row r="15" spans="1:15" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="O15" s="18"/>
+    </row>
+    <row r="16" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>3</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B16" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="18"/>
+    </row>
+    <row r="17" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="B17" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="43"/>
-    </row>
-    <row r="15" spans="1:15" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="O15" s="43"/>
-    </row>
-    <row r="16" spans="1:15" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="O16" s="43"/>
-    </row>
-    <row r="17" spans="1:15" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="B17" s="56" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="32"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="O17" s="43"/>
-    </row>
-    <row r="18" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O17" s="18"/>
+    </row>
+    <row r="18" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>4</v>
-      </c>
-      <c r="B18" s="47" t="s">
+        <v>3.2</v>
+      </c>
+      <c r="B18" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="O18" s="43"/>
-    </row>
-    <row r="19" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="O19" s="43"/>
-    </row>
-    <row r="20" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="O18" s="18"/>
+    </row>
+    <row r="19" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>3.3</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="O19" s="18"/>
+    </row>
+    <row r="20" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="32"/>
+        <v>3.4</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="O20" s="43"/>
-    </row>
-    <row r="21" spans="1:15" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="O21" s="45"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O20" s="19"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="O6:O21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
+  <mergeCells count="55">
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:K3"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="O6:O20"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
